--- a/StructureDefinition-be-referralprescription-request-group.xlsx
+++ b/StructureDefinition-be-referralprescription-request-group.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Description</t>
@@ -1333,7 +1333,7 @@
     <t>The resource that is the target of the action (e.g. CommunicationRequest).</t>
   </si>
   <si>
-    <t>The target resource SHALL be a [Request](http://hl7.org/fhir/R4/request.html) resource with a Request.intent set to "option".</t>
+    <t>The target resource SHALL be a [Request](request.html) resource with a Request.intent set to "option".</t>
   </si>
   <si>
     <t xml:space="preserve">rqg-1

--- a/StructureDefinition-be-referralprescription-request-group.xlsx
+++ b/StructureDefinition-be-referralprescription-request-group.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="439">
   <si>
     <t>Property</t>
   </si>
@@ -250,6 +250,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>A group of related requests</t>
@@ -1886,13 +1890,13 @@
         <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1958,21 +1962,21 @@
         <v>75</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1983,7 +1987,7 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>75</v>
@@ -1992,19 +1996,19 @@
         <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2054,13 +2058,13 @@
         <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>75</v>
@@ -2080,10 +2084,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2094,7 +2098,7 @@
         <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>75</v>
@@ -2103,16 +2107,16 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2163,19 +2167,19 @@
         <v>75</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
@@ -2189,10 +2193,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2203,28 +2207,28 @@
         <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2274,19 +2278,19 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>75</v>
@@ -2300,10 +2304,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2314,7 +2318,7 @@
         <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>75</v>
@@ -2326,16 +2330,16 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2361,13 +2365,13 @@
         <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>75</v>
@@ -2385,19 +2389,19 @@
         <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>75</v>
@@ -2411,21 +2415,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>75</v>
@@ -2437,16 +2441,16 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2496,19 +2500,19 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>75</v>
@@ -2517,19 +2521,19 @@
         <v>75</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2548,16 +2552,16 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2607,7 +2611,7 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -2628,19 +2632,19 @@
         <v>75</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2659,16 +2663,16 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2718,7 +2722,7 @@
         <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -2730,7 +2734,7 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>75</v>
@@ -2739,19 +2743,19 @@
         <v>75</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2764,25 +2768,25 @@
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>75</v>
@@ -2831,7 +2835,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2843,7 +2847,7 @@
         <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
@@ -2852,15 +2856,15 @@
         <v>75</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2880,20 +2884,20 @@
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -2930,17 +2934,17 @@
         <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2952,13 +2956,13 @@
         <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>75</v>
@@ -2966,13 +2970,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>75</v>
@@ -2982,7 +2986,7 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -2991,20 +2995,20 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>75</v>
@@ -3053,7 +3057,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3065,13 +3069,13 @@
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>75</v>
@@ -3079,10 +3083,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3093,7 +3097,7 @@
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
@@ -3105,13 +3109,13 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3162,13 +3166,13 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>75</v>
@@ -3183,19 +3187,19 @@
         <v>75</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3214,16 +3218,16 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3261,19 +3265,19 @@
         <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -3285,7 +3289,7 @@
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>75</v>
@@ -3294,15 +3298,15 @@
         <v>75</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3313,31 +3317,31 @@
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>75</v>
@@ -3362,13 +3366,13 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -3386,19 +3390,19 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
@@ -3407,15 +3411,15 @@
         <v>75</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3426,7 +3430,7 @@
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -3435,22 +3439,22 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3475,13 +3479,13 @@
         <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
@@ -3499,19 +3503,19 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
@@ -3520,15 +3524,15 @@
         <v>75</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3536,10 +3540,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3548,35 +3552,35 @@
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>75</v>
@@ -3612,19 +3616,19 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>75</v>
@@ -3633,15 +3637,15 @@
         <v>75</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3649,10 +3653,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
@@ -3661,19 +3665,19 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3687,7 +3691,7 @@
         <v>75</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>75</v>
@@ -3723,19 +3727,19 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>75</v>
@@ -3744,15 +3748,15 @@
         <v>75</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3763,7 +3767,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -3772,16 +3776,16 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3832,19 +3836,19 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>75</v>
@@ -3853,15 +3857,15 @@
         <v>75</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3872,7 +3876,7 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
@@ -3881,19 +3885,19 @@
         <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3943,19 +3947,19 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>75</v>
@@ -3964,15 +3968,15 @@
         <v>75</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3992,16 +3996,16 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4052,7 +4056,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -4064,10 +4068,10 @@
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>75</v>
@@ -4078,10 +4082,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4101,16 +4105,16 @@
         <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4161,7 +4165,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -4173,10 +4177,10 @@
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>75</v>
@@ -4187,14 +4191,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4213,17 +4217,17 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>75</v>
@@ -4272,7 +4276,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4284,10 +4288,10 @@
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
@@ -4298,14 +4302,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4324,19 +4328,19 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>75</v>
@@ -4385,7 +4389,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4397,10 +4401,10 @@
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
@@ -4411,45 +4415,45 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4498,22 +4502,22 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4524,10 +4528,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4535,28 +4539,28 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4583,13 +4587,13 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -4607,25 +4611,25 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>75</v>
@@ -4633,43 +4637,43 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4694,13 +4698,13 @@
         <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>75</v>
@@ -4718,25 +4722,25 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>75</v>
@@ -4744,10 +4748,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4758,7 +4762,7 @@
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
@@ -4767,16 +4771,16 @@
         <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4784,7 +4788,7 @@
         <v>75</v>
       </c>
       <c r="Q28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>75</v>
@@ -4805,13 +4809,13 @@
         <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>75</v>
@@ -4829,25 +4833,25 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>75</v>
@@ -4855,10 +4859,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4869,7 +4873,7 @@
         <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
@@ -4878,19 +4882,19 @@
         <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4940,25 +4944,25 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>75</v>
@@ -4966,10 +4970,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4980,7 +4984,7 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
@@ -4992,13 +4996,13 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5049,25 +5053,25 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>75</v>
@@ -5075,10 +5079,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5089,7 +5093,7 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -5101,13 +5105,13 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5158,25 +5162,25 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>75</v>
@@ -5184,10 +5188,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5198,7 +5202,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -5210,13 +5214,13 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5267,25 +5271,25 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>75</v>
@@ -5293,10 +5297,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5307,7 +5311,7 @@
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
@@ -5319,13 +5323,13 @@
         <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5376,25 +5380,25 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>75</v>
@@ -5402,10 +5406,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5428,13 +5432,13 @@
         <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5485,7 +5489,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5497,13 +5501,13 @@
         <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>75</v>
@@ -5511,10 +5515,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5537,13 +5541,13 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5594,7 +5598,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5606,13 +5610,13 @@
         <v>75</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>75</v>
@@ -5620,10 +5624,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5646,13 +5650,13 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5703,7 +5707,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5715,10 +5719,10 @@
         <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5729,10 +5733,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5740,13 +5744,13 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>75</v>
@@ -5755,13 +5759,13 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5812,7 +5816,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5824,7 +5828,7 @@
         <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
@@ -5838,10 +5842,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5852,10 +5856,10 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>75</v>
@@ -5864,13 +5868,13 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5921,13 +5925,13 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>75</v>
@@ -5942,19 +5946,19 @@
         <v>75</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5973,16 +5977,16 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6032,7 +6036,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6044,7 +6048,7 @@
         <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
@@ -6053,19 +6057,19 @@
         <v>75</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6078,25 +6082,25 @@
         <v>75</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -6145,7 +6149,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6157,7 +6161,7 @@
         <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>75</v>
@@ -6166,15 +6170,15 @@
         <v>75</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6185,7 +6189,7 @@
         <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>75</v>
@@ -6197,13 +6201,13 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6254,19 +6258,19 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>75</v>
@@ -6280,10 +6284,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6294,7 +6298,7 @@
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
@@ -6306,13 +6310,13 @@
         <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6363,19 +6367,19 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>75</v>
@@ -6389,10 +6393,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6403,7 +6407,7 @@
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>75</v>
@@ -6412,16 +6416,16 @@
         <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6472,19 +6476,19 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>75</v>
@@ -6498,10 +6502,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6512,7 +6516,7 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
@@ -6521,16 +6525,16 @@
         <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6581,19 +6585,19 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
@@ -6607,10 +6611,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6621,7 +6625,7 @@
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>75</v>
@@ -6633,13 +6637,13 @@
         <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6666,13 +6670,13 @@
         <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>75</v>
@@ -6690,22 +6694,22 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>75</v>
@@ -6716,10 +6720,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6742,13 +6746,13 @@
         <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6799,7 +6803,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6811,10 +6815,10 @@
         <v>75</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -6825,10 +6829,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6851,13 +6855,13 @@
         <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6908,7 +6912,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6920,10 +6924,10 @@
         <v>75</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -6934,10 +6938,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6960,16 +6964,16 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7019,7 +7023,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7031,7 +7035,7 @@
         <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>75</v>
@@ -7045,10 +7049,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7059,7 +7063,7 @@
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
@@ -7071,13 +7075,13 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7128,13 +7132,13 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>75</v>
@@ -7149,19 +7153,19 @@
         <v>75</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7180,16 +7184,16 @@
         <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7239,7 +7243,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7251,7 +7255,7 @@
         <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>75</v>
@@ -7260,19 +7264,19 @@
         <v>75</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7285,25 +7289,25 @@
         <v>75</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>75</v>
@@ -7352,7 +7356,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7364,7 +7368,7 @@
         <v>75</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>75</v>
@@ -7373,15 +7377,15 @@
         <v>75</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7389,10 +7393,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>75</v>
@@ -7404,16 +7408,16 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7439,13 +7443,13 @@
         <v>75</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>75</v>
@@ -7463,19 +7467,19 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>75</v>
@@ -7489,10 +7493,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7503,7 +7507,7 @@
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>75</v>
@@ -7515,16 +7519,16 @@
         <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7574,19 +7578,19 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>75</v>
@@ -7600,10 +7604,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7617,7 +7621,7 @@
         <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>75</v>
@@ -7626,13 +7630,13 @@
         <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7683,7 +7687,7 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7695,7 +7699,7 @@
         <v>75</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>75</v>
@@ -7709,10 +7713,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7723,7 +7727,7 @@
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
@@ -7735,13 +7739,13 @@
         <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7792,13 +7796,13 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>75</v>
@@ -7813,19 +7817,19 @@
         <v>75</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7844,16 +7848,16 @@
         <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7903,7 +7907,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -7915,7 +7919,7 @@
         <v>75</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>75</v>
@@ -7924,19 +7928,19 @@
         <v>75</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -7949,25 +7953,25 @@
         <v>75</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>75</v>
@@ -8016,7 +8020,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8028,7 +8032,7 @@
         <v>75</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>75</v>
@@ -8037,15 +8041,15 @@
         <v>75</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8053,13 +8057,13 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>75</v>
@@ -8068,13 +8072,13 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8125,19 +8129,19 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>75</v>
@@ -8151,10 +8155,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8162,13 +8166,13 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>75</v>
@@ -8177,13 +8181,13 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8210,13 +8214,13 @@
         <v>75</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>75</v>
@@ -8234,19 +8238,19 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>75</v>
@@ -8260,10 +8264,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8274,7 +8278,7 @@
         <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>75</v>
@@ -8286,13 +8290,13 @@
         <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8343,19 +8347,19 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
@@ -8369,10 +8373,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8383,7 +8387,7 @@
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>75</v>
@@ -8395,13 +8399,13 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8452,22 +8456,22 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>75</v>
@@ -8478,10 +8482,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8504,13 +8508,13 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8561,7 +8565,7 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8573,13 +8577,13 @@
         <v>75</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>75</v>
@@ -8587,10 +8591,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8601,7 +8605,7 @@
         <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>75</v>
@@ -8613,13 +8617,13 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8646,13 +8650,13 @@
         <v>75</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>75</v>
@@ -8670,19 +8674,19 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>75</v>
@@ -8696,10 +8700,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8710,7 +8714,7 @@
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>75</v>
@@ -8722,13 +8726,13 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8755,13 +8759,13 @@
         <v>75</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>75</v>
@@ -8779,19 +8783,19 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>75</v>
@@ -8805,10 +8809,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8819,7 +8823,7 @@
         <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>75</v>
@@ -8831,13 +8835,13 @@
         <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8864,13 +8868,13 @@
         <v>75</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>75</v>
@@ -8888,19 +8892,19 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>75</v>
@@ -8914,10 +8918,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8928,7 +8932,7 @@
         <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>75</v>
@@ -8940,13 +8944,13 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8973,13 +8977,13 @@
         <v>75</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>75</v>
@@ -8997,19 +9001,19 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>75</v>
@@ -9023,10 +9027,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9037,7 +9041,7 @@
         <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>75</v>
@@ -9049,13 +9053,13 @@
         <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9082,13 +9086,13 @@
         <v>75</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>75</v>
@@ -9106,19 +9110,19 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>75</v>
@@ -9132,10 +9136,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9146,7 +9150,7 @@
         <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>75</v>
@@ -9158,13 +9162,13 @@
         <v>75</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9191,13 +9195,13 @@
         <v>75</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>75</v>
@@ -9215,19 +9219,19 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>75</v>
@@ -9241,10 +9245,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9252,13 +9256,13 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>75</v>
@@ -9267,16 +9271,16 @@
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9326,19 +9330,19 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>75</v>
@@ -9352,10 +9356,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9378,13 +9382,13 @@
         <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9435,7 +9439,7 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -9444,10 +9448,10 @@
         <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-be-referralprescription-request-group.xlsx
+++ b/StructureDefinition-be-referralprescription-request-group.xlsx
@@ -1353,7 +1353,7 @@
     <t>RequestGroup.action.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription|https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription-nursing-medication|https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription-request-group)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription|https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription-request-group)
 </t>
   </si>
   <si>
@@ -1713,7 +1713,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="198.6875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-be-referralprescription-request-group.xlsx
+++ b/StructureDefinition-be-referralprescription-request-group.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -1353,7 +1353,7 @@
     <t>RequestGroup.action.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription|https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription-request-group)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription|https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription-nursing-medication)
 </t>
   </si>
   <si>
@@ -1713,7 +1713,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="198.6875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="203.4140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4432,7 +4432,7 @@
         <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>75</v>
@@ -5859,7 +5859,7 @@
         <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>75</v>
@@ -8063,7 +8063,7 @@
         <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>75</v>
@@ -8172,7 +8172,7 @@
         <v>84</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-be-referralprescription-request-group.xlsx
+++ b/StructureDefinition-be-referralprescription-request-group.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -1353,7 +1353,7 @@
     <t>RequestGroup.action.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription|https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription-nursing-medication)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription|https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription-request-group)
 </t>
   </si>
   <si>
@@ -1713,7 +1713,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="203.4140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="198.6875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4432,7 +4432,7 @@
         <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>75</v>
@@ -5859,7 +5859,7 @@
         <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>75</v>
@@ -8063,7 +8063,7 @@
         <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>75</v>
@@ -8172,7 +8172,7 @@
         <v>84</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-be-referralprescription-request-group.xlsx
+++ b/StructureDefinition-be-referralprescription-request-group.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2422" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2422" uniqueCount="401">
   <si>
     <t>Property</t>
   </si>
@@ -145,6 +145,10 @@
     <t>A group of related requests that can be used to capture intended activities that have inter-dependencies such as "give this medication after that one".</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>Request</t>
   </si>
   <si>
@@ -1246,7 +1250,7 @@
     <t>The resource that is the target of the action (e.g. CommunicationRequest).</t>
   </si>
   <si>
-    <t>The target resource SHALL be a [Request](request.html) resource with a Request.intent set to "option".</t>
+    <t>The target resource SHALL be a [Request](http://hl7.org/fhir/R4/request.html) resource with a Request.intent set to "option".</t>
   </si>
   <si>
     <t xml:space="preserve">rqg-1
@@ -1722,24 +1726,24 @@
         <v>36</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1750,7 +1754,7 @@
         <v>37</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>36</v>
@@ -1759,19 +1763,19 @@
         <v>36</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1821,13 +1825,13 @@
         <v>36</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>36</v>
@@ -1847,10 +1851,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1861,7 +1865,7 @@
         <v>37</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>36</v>
@@ -1870,16 +1874,16 @@
         <v>36</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1930,19 +1934,19 @@
         <v>36</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>36</v>
@@ -1956,10 +1960,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1970,28 +1974,28 @@
         <v>37</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2041,19 +2045,19 @@
         <v>36</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>36</v>
@@ -2067,10 +2071,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2081,7 +2085,7 @@
         <v>37</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>36</v>
@@ -2093,16 +2097,16 @@
         <v>36</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2128,13 +2132,13 @@
         <v>36</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>36</v>
@@ -2152,19 +2156,19 @@
         <v>36</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>36</v>
@@ -2178,21 +2182,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>36</v>
@@ -2204,16 +2208,16 @@
         <v>36</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2263,19 +2267,19 @@
         <v>36</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>36</v>
@@ -2284,19 +2288,19 @@
         <v>36</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2315,16 +2319,16 @@
         <v>36</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2374,7 +2378,7 @@
         <v>36</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>37</v>
@@ -2395,19 +2399,19 @@
         <v>36</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2426,16 +2430,16 @@
         <v>36</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2485,7 +2489,7 @@
         <v>36</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>37</v>
@@ -2497,7 +2501,7 @@
         <v>36</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>36</v>
@@ -2506,19 +2510,19 @@
         <v>36</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2531,25 +2535,25 @@
         <v>36</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>36</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>36</v>
@@ -2598,7 +2602,7 @@
         <v>36</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>37</v>
@@ -2610,7 +2614,7 @@
         <v>36</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>36</v>
@@ -2619,15 +2623,15 @@
         <v>36</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2647,20 +2651,20 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>36</v>
@@ -2697,17 +2701,17 @@
         <v>36</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>37</v>
@@ -2719,13 +2723,13 @@
         <v>36</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>36</v>
@@ -2733,13 +2737,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>36</v>
@@ -2749,7 +2753,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>36</v>
@@ -2758,20 +2762,20 @@
         <v>36</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>36</v>
@@ -2820,7 +2824,7 @@
         <v>36</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>37</v>
@@ -2832,13 +2836,13 @@
         <v>36</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>36</v>
@@ -2846,10 +2850,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2860,7 +2864,7 @@
         <v>37</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>36</v>
@@ -2872,13 +2876,13 @@
         <v>36</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2929,13 +2933,13 @@
         <v>36</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>36</v>
@@ -2950,19 +2954,19 @@
         <v>36</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2981,16 +2985,16 @@
         <v>36</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3028,19 +3032,19 @@
         <v>36</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>37</v>
@@ -3052,7 +3056,7 @@
         <v>36</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>36</v>
@@ -3061,15 +3065,15 @@
         <v>36</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3080,31 +3084,31 @@
         <v>37</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>36</v>
@@ -3129,13 +3133,13 @@
         <v>36</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>36</v>
@@ -3153,19 +3157,19 @@
         <v>36</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>36</v>
@@ -3174,15 +3178,15 @@
         <v>36</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3193,7 +3197,7 @@
         <v>37</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>36</v>
@@ -3202,22 +3206,22 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>36</v>
@@ -3242,13 +3246,13 @@
         <v>36</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>36</v>
@@ -3266,19 +3270,19 @@
         <v>36</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>36</v>
@@ -3287,15 +3291,15 @@
         <v>36</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3303,10 +3307,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>36</v>
@@ -3315,35 +3319,35 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>36</v>
@@ -3379,19 +3383,19 @@
         <v>36</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>36</v>
@@ -3400,15 +3404,15 @@
         <v>36</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3416,10 +3420,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>36</v>
@@ -3428,19 +3432,19 @@
         <v>36</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3454,7 +3458,7 @@
         <v>36</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>36</v>
@@ -3490,19 +3494,19 @@
         <v>36</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>36</v>
@@ -3511,15 +3515,15 @@
         <v>36</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3530,7 +3534,7 @@
         <v>37</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>36</v>
@@ -3539,16 +3543,16 @@
         <v>36</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3599,19 +3603,19 @@
         <v>36</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>36</v>
@@ -3620,15 +3624,15 @@
         <v>36</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3639,7 +3643,7 @@
         <v>37</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>36</v>
@@ -3648,19 +3652,19 @@
         <v>36</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3710,19 +3714,19 @@
         <v>36</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>36</v>
@@ -3731,15 +3735,15 @@
         <v>36</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3759,16 +3763,16 @@
         <v>36</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3819,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>37</v>
@@ -3831,10 +3835,10 @@
         <v>36</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>36</v>
@@ -3845,10 +3849,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3868,16 +3872,16 @@
         <v>36</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3928,7 +3932,7 @@
         <v>36</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>37</v>
@@ -3940,10 +3944,10 @@
         <v>36</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>36</v>
@@ -3954,14 +3958,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3980,17 +3984,17 @@
         <v>36</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>36</v>
@@ -4039,7 +4043,7 @@
         <v>36</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>37</v>
@@ -4051,10 +4055,10 @@
         <v>36</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>36</v>
@@ -4065,14 +4069,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4091,19 +4095,19 @@
         <v>36</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>36</v>
@@ -4152,7 +4156,7 @@
         <v>36</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>37</v>
@@ -4164,10 +4168,10 @@
         <v>36</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>36</v>
@@ -4178,45 +4182,45 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>36</v>
@@ -4265,22 +4269,22 @@
         <v>36</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>36</v>
@@ -4291,10 +4295,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4302,28 +4306,28 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4350,13 +4354,13 @@
         <v>36</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>36</v>
@@ -4374,25 +4378,25 @@
         <v>36</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>36</v>
@@ -4400,43 +4404,43 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>36</v>
@@ -4461,13 +4465,13 @@
         <v>36</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>36</v>
@@ -4485,25 +4489,25 @@
         <v>36</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>36</v>
@@ -4511,10 +4515,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4525,7 +4529,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>36</v>
@@ -4534,16 +4538,16 @@
         <v>36</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4551,7 +4555,7 @@
         <v>36</v>
       </c>
       <c r="Q27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>36</v>
@@ -4572,13 +4576,13 @@
         <v>36</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>36</v>
@@ -4596,25 +4600,25 @@
         <v>36</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>36</v>
@@ -4622,10 +4626,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4636,7 +4640,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>36</v>
@@ -4645,19 +4649,19 @@
         <v>36</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4707,25 +4711,25 @@
         <v>36</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>36</v>
@@ -4733,10 +4737,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4747,7 +4751,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>36</v>
@@ -4759,13 +4763,13 @@
         <v>36</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4816,25 +4820,25 @@
         <v>36</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>36</v>
@@ -4842,10 +4846,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4856,7 +4860,7 @@
         <v>37</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>36</v>
@@ -4868,13 +4872,13 @@
         <v>36</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4925,25 +4929,25 @@
         <v>36</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>36</v>
@@ -4951,10 +4955,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4965,7 +4969,7 @@
         <v>37</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>36</v>
@@ -4977,13 +4981,13 @@
         <v>36</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5034,25 +5038,25 @@
         <v>36</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>36</v>
@@ -5060,10 +5064,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5074,7 +5078,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>36</v>
@@ -5086,13 +5090,13 @@
         <v>36</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5143,25 +5147,25 @@
         <v>36</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>36</v>
@@ -5169,10 +5173,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5195,13 +5199,13 @@
         <v>36</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5252,7 +5256,7 @@
         <v>36</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>37</v>
@@ -5264,13 +5268,13 @@
         <v>36</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>36</v>
@@ -5278,10 +5282,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5304,13 +5308,13 @@
         <v>36</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5361,7 +5365,7 @@
         <v>36</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>37</v>
@@ -5373,13 +5377,13 @@
         <v>36</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>36</v>
@@ -5387,10 +5391,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5413,13 +5417,13 @@
         <v>36</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5470,7 +5474,7 @@
         <v>36</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>37</v>
@@ -5482,10 +5486,10 @@
         <v>36</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>36</v>
@@ -5496,10 +5500,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5507,13 +5511,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>36</v>
@@ -5522,13 +5526,13 @@
         <v>36</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5579,7 +5583,7 @@
         <v>36</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>37</v>
@@ -5591,7 +5595,7 @@
         <v>36</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>36</v>
@@ -5605,10 +5609,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5619,10 +5623,10 @@
         <v>37</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>36</v>
@@ -5631,13 +5635,13 @@
         <v>36</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5688,13 +5692,13 @@
         <v>36</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>36</v>
@@ -5709,19 +5713,19 @@
         <v>36</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5740,16 +5744,16 @@
         <v>36</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5799,7 +5803,7 @@
         <v>36</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>37</v>
@@ -5811,7 +5815,7 @@
         <v>36</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>36</v>
@@ -5820,19 +5824,19 @@
         <v>36</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5845,25 +5849,25 @@
         <v>36</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>36</v>
@@ -5912,7 +5916,7 @@
         <v>36</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>37</v>
@@ -5924,7 +5928,7 @@
         <v>36</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>36</v>
@@ -5933,15 +5937,15 @@
         <v>36</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5952,7 +5956,7 @@
         <v>37</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>36</v>
@@ -5964,13 +5968,13 @@
         <v>36</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6021,19 +6025,19 @@
         <v>36</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>36</v>
@@ -6047,10 +6051,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6061,7 +6065,7 @@
         <v>37</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>36</v>
@@ -6073,13 +6077,13 @@
         <v>36</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6130,19 +6134,19 @@
         <v>36</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>36</v>
@@ -6156,10 +6160,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6170,7 +6174,7 @@
         <v>37</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>36</v>
@@ -6179,16 +6183,16 @@
         <v>36</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6239,19 +6243,19 @@
         <v>36</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>36</v>
@@ -6265,10 +6269,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6279,7 +6283,7 @@
         <v>37</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>36</v>
@@ -6288,16 +6292,16 @@
         <v>36</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6348,19 +6352,19 @@
         <v>36</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>36</v>
@@ -6374,10 +6378,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6388,7 +6392,7 @@
         <v>37</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>36</v>
@@ -6400,13 +6404,13 @@
         <v>36</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6433,13 +6437,13 @@
         <v>36</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>36</v>
@@ -6457,22 +6461,22 @@
         <v>36</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>36</v>
@@ -6483,10 +6487,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6509,13 +6513,13 @@
         <v>36</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6566,7 +6570,7 @@
         <v>36</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>37</v>
@@ -6578,10 +6582,10 @@
         <v>36</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>36</v>
@@ -6592,10 +6596,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6618,13 +6622,13 @@
         <v>36</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6675,7 +6679,7 @@
         <v>36</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>37</v>
@@ -6687,10 +6691,10 @@
         <v>36</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>36</v>
@@ -6701,10 +6705,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6727,16 +6731,16 @@
         <v>36</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6786,7 +6790,7 @@
         <v>36</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>37</v>
@@ -6798,7 +6802,7 @@
         <v>36</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>36</v>
@@ -6812,10 +6816,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6826,7 +6830,7 @@
         <v>37</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>36</v>
@@ -6838,13 +6842,13 @@
         <v>36</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6895,13 +6899,13 @@
         <v>36</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>36</v>
@@ -6916,19 +6920,19 @@
         <v>36</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -6947,16 +6951,16 @@
         <v>36</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7006,7 +7010,7 @@
         <v>36</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>37</v>
@@ -7018,7 +7022,7 @@
         <v>36</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>36</v>
@@ -7027,19 +7031,19 @@
         <v>36</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7052,25 +7056,25 @@
         <v>36</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>36</v>
@@ -7119,7 +7123,7 @@
         <v>36</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>37</v>
@@ -7131,7 +7135,7 @@
         <v>36</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>36</v>
@@ -7140,15 +7144,15 @@
         <v>36</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7156,10 +7160,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>36</v>
@@ -7171,16 +7175,16 @@
         <v>36</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7206,13 +7210,13 @@
         <v>36</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>36</v>
@@ -7230,19 +7234,19 @@
         <v>36</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>36</v>
@@ -7256,10 +7260,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7270,7 +7274,7 @@
         <v>37</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>36</v>
@@ -7282,16 +7286,16 @@
         <v>36</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7341,19 +7345,19 @@
         <v>36</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>36</v>
@@ -7367,10 +7371,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7384,7 +7388,7 @@
         <v>38</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>36</v>
@@ -7393,13 +7397,13 @@
         <v>36</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7450,7 +7454,7 @@
         <v>36</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>37</v>
@@ -7462,7 +7466,7 @@
         <v>36</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>36</v>
@@ -7476,10 +7480,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7490,7 +7494,7 @@
         <v>37</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>36</v>
@@ -7502,13 +7506,13 @@
         <v>36</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7559,13 +7563,13 @@
         <v>36</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>36</v>
@@ -7580,19 +7584,19 @@
         <v>36</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7611,16 +7615,16 @@
         <v>36</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7670,7 +7674,7 @@
         <v>36</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>37</v>
@@ -7682,7 +7686,7 @@
         <v>36</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>36</v>
@@ -7691,19 +7695,19 @@
         <v>36</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7716,25 +7720,25 @@
         <v>36</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>36</v>
@@ -7783,7 +7787,7 @@
         <v>36</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>37</v>
@@ -7795,7 +7799,7 @@
         <v>36</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>36</v>
@@ -7804,15 +7808,15 @@
         <v>36</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7820,13 +7824,13 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>36</v>
@@ -7835,13 +7839,13 @@
         <v>36</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7892,19 +7896,19 @@
         <v>36</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>36</v>
@@ -7918,10 +7922,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7929,13 +7933,13 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>36</v>
@@ -7944,13 +7948,13 @@
         <v>36</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7977,13 +7981,13 @@
         <v>36</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>36</v>
@@ -8001,19 +8005,19 @@
         <v>36</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>36</v>
@@ -8027,10 +8031,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8041,7 +8045,7 @@
         <v>37</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>36</v>
@@ -8053,13 +8057,13 @@
         <v>36</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8110,19 +8114,19 @@
         <v>36</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>36</v>
@@ -8136,10 +8140,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8150,7 +8154,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>36</v>
@@ -8162,13 +8166,13 @@
         <v>36</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8219,22 +8223,22 @@
         <v>36</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>36</v>
@@ -8245,10 +8249,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8271,13 +8275,13 @@
         <v>36</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8328,7 +8332,7 @@
         <v>36</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>37</v>
@@ -8340,13 +8344,13 @@
         <v>36</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>36</v>
@@ -8354,10 +8358,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8368,7 +8372,7 @@
         <v>37</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>36</v>
@@ -8380,13 +8384,13 @@
         <v>36</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8413,13 +8417,13 @@
         <v>36</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>36</v>
@@ -8437,19 +8441,19 @@
         <v>36</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>36</v>
@@ -8463,10 +8467,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8477,7 +8481,7 @@
         <v>37</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>36</v>
@@ -8489,13 +8493,13 @@
         <v>36</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8522,13 +8526,13 @@
         <v>36</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>36</v>
@@ -8546,19 +8550,19 @@
         <v>36</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>36</v>
@@ -8572,10 +8576,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8586,7 +8590,7 @@
         <v>37</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>36</v>
@@ -8598,13 +8602,13 @@
         <v>36</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8631,13 +8635,13 @@
         <v>36</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>36</v>
@@ -8655,19 +8659,19 @@
         <v>36</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>36</v>
@@ -8681,10 +8685,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8695,7 +8699,7 @@
         <v>37</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>36</v>
@@ -8707,13 +8711,13 @@
         <v>36</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8740,13 +8744,13 @@
         <v>36</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>36</v>
@@ -8764,19 +8768,19 @@
         <v>36</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>36</v>
@@ -8790,10 +8794,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8804,7 +8808,7 @@
         <v>37</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>36</v>
@@ -8816,13 +8820,13 @@
         <v>36</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8849,13 +8853,13 @@
         <v>36</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>36</v>
@@ -8873,19 +8877,19 @@
         <v>36</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>36</v>
@@ -8899,10 +8903,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8913,7 +8917,7 @@
         <v>37</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>36</v>
@@ -8925,13 +8929,13 @@
         <v>36</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8958,13 +8962,13 @@
         <v>36</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>36</v>
@@ -8982,19 +8986,19 @@
         <v>36</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>36</v>
@@ -9008,10 +9012,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9019,13 +9023,13 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>36</v>
@@ -9034,16 +9038,16 @@
         <v>36</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9093,19 +9097,19 @@
         <v>36</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>36</v>
@@ -9119,10 +9123,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9148,10 +9152,10 @@
         <v>39</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9202,7 +9206,7 @@
         <v>36</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>37</v>
@@ -9211,10 +9215,10 @@
         <v>38</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>36</v>
